--- a/biology/Zoologie/Argus_(papillon)/Argus_(papillon).xlsx
+++ b/biology/Zoologie/Argus_(papillon)/Argus_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argus est un nom vernaculaire français ambigu qui désigne plusieurs espèces différentes de lépidoptères (papillons) de la famille des Lycaenidae, principalement de la sous-famille des Polyommatinae (ces espèces étant souvent aussi appelées « Azurés »), mais aussi de celle des Lycaeninae (espèces aussi appelées « Cuivrés »).
-Ce nom leur vient des taches circulaires sous leurs ailes, qui évoquent les yeux d'Argos, un personnage de la mythologie grecque doté d'une centaine d'yeux[1].
+Ce nom leur vient des taches circulaires sous leurs ailes, qui évoquent les yeux d'Argos, un personnage de la mythologie grecque doté d'une centaine d'yeux.
 </t>
         </is>
       </c>
@@ -512,43 +524,45 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[2] en français.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français.
 Note : il est fréquent qu'une espèce ait plusieurs noms vernaculaires.
-Azuré de l'ajonc ou Petit argus – Plebejus argus[3],[4]
-Argus alpin – Agriades orbitulus[3]
-Argus bleu – Polyommatus icarus[5],[3]
+Azuré de l'ajonc ou Petit argus – Plebejus argus,
+Argus alpin – Agriades orbitulus
+Argus bleu – Polyommatus icarus,
 Argus bleu céleste – Lysandra bellargus
-Argus bleu-nacré – Lysandra coridon[5],[3]
-Argus bleu-violet – Glaucopsyche alexis[3]
-Argus bronzé – Lycaena phlaeas[6]
-Argus brun – Aricia agestis[3]
-Argus castillan – Aricia morronensis[5],[6]
-Argus crétois – Kretania psylorita[5]
-Argus de l'hélianthème – Aricia artaxerxes[5]
-Argus de la sanguinaire – Eumedonia eumedon[5]
-Argus des pélargoniums – Cacyreus marshalli[6]
-Argus des géraniums – Aricia nicias[6]
-Argus du Taygète – Kretania eurypilus[5]
-Argus frêle – Cupido minimus[6]
-Argus iridié – Lysandra albicans[5]
-Argus marron – Aricia artaxerxes[6]
-Argus mini-queue – Cupido argiades[6]
-Argus minime – Cupido minimus[3],[6]
-Argus myope – Lycaena tityrus[3]
-Argus pointillé – Pseudophilotes baton[7]
-Argus porte-queue – Lampides boeticus[3],[8]
-Argus rase-queue – Cupido alcetas[9]
-Argus sagitté – Plebejus idas[7]
-Argus satiné – Lycaena virgaureae[3]
+Argus bleu-nacré – Lysandra coridon,
+Argus bleu-violet – Glaucopsyche alexis
+Argus bronzé – Lycaena phlaeas
+Argus brun – Aricia agestis
+Argus castillan – Aricia morronensis,
+Argus crétois – Kretania psylorita
+Argus de l'hélianthème – Aricia artaxerxes
+Argus de la sanguinaire – Eumedonia eumedon
+Argus des pélargoniums – Cacyreus marshalli
+Argus des géraniums – Aricia nicias
+Argus du Taygète – Kretania eurypilus
+Argus frêle – Cupido minimus
+Argus iridié – Lysandra albicans
+Argus marron – Aricia artaxerxes
+Argus mini-queue – Cupido argiades
+Argus minime – Cupido minimus,
+Argus myope – Lycaena tityrus
+Argus pointillé – Pseudophilotes baton
+Argus porte-queue – Lampides boeticus,
+Argus rase-queue – Cupido alcetas
+Argus sagitté – Plebejus idas
+Argus satiné – Lycaena virgaureae
 Argus satiné changeant – Lycaena hippothoe
-Argus violet – Cyaniris semiargus[6]
-Argus à bande noire – Celastrina argiolus[3]
-Bel-Argus – Lysandra bellargus[3]
-Demi-argus – Cyaniris semiargus[5]
-Grand argus bronzé – Lycaena alciphron[3]
-Moyen argus – Plebejus idas[4]</t>
+Argus violet – Cyaniris semiargus
+Argus à bande noire – Celastrina argiolus
+Bel-Argus – Lysandra bellargus
+Demi-argus – Cyaniris semiargus
+Grand argus bronzé – Lycaena alciphron
+Moyen argus – Plebejus idas</t>
         </is>
       </c>
     </row>
